--- a/marriage-rates-states-map-20170214/marriage-rates-states-map-20170214.xlsx
+++ b/marriage-rates-states-map-20170214/marriage-rates-states-map-20170214.xlsx
@@ -21,9 +21,15 @@
     <t>value</t>
   </si>
   <si>
+    <t>headline</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
+    <t>state_name</t>
+  </si>
+  <si>
     <t>usps</t>
   </si>
   <si>
@@ -33,277 +39,478 @@
     <t>Alabama</t>
   </si>
   <si>
-    <t>state_name</t>
-  </si>
-  <si>
-    <t>headline</t>
+    <t>Marriage Rates, By State: 2015</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>Ala.</t>
+  </si>
+  <si>
+    <t>Alaska</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>subhed</t>
+  </si>
+  <si>
+    <t>Marriages per 1,000 population</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>Ariz.</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Ark.</t>
+  </si>
+  <si>
+    <t>footnote</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>Calif.</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Colo.</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>Conn.</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.cdc.gov/nchs/nvss/marriage-divorce.htm"&gt;National Vital Statistics System&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>Del.</t>
+  </si>
+  <si>
+    <t>District of Columbia</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>D.C.</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>Fla.</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>Ga.</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>HI</t>
+  </si>
+  <si>
+    <t>Idaho</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>Ill.</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>Ind.</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>Kan.</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>Ky.</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>Matt Stiles/&lt;a href="http://www.thedailyviz.com"&gt;The Daily Viz&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>La.</t>
+  </si>
+  <si>
+    <t>Maine</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>Md.</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>MA</t>
   </si>
   <si>
     <t>category</t>
   </si>
   <si>
-    <t>Marriage Rates, By State: 2015</t>
-  </si>
-  <si>
-    <t>subhed</t>
-  </si>
-  <si>
-    <t>Marriages per 1,000 population</t>
+    <t>Mass.</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>Mich.</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>Minn.</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>Miss.</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>Mo.</t>
+  </si>
+  <si>
+    <t>Montana</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>Mont.</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>Neb.</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>NV</t>
+  </si>
+  <si>
+    <t>Nev.</t>
+  </si>
+  <si>
+    <t>New Hampshire</t>
+  </si>
+  <si>
+    <t>NH</t>
   </si>
   <si>
     <t>rate</t>
   </si>
   <si>
-    <t>footnote</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>AL</t>
-  </si>
-  <si>
-    <t>&lt;a href="https://www.cdc.gov/nchs/nvss/marriage-divorce.htm"&gt;National Vital Statistics System&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Ala.</t>
-  </si>
-  <si>
-    <t>Alaska</t>
-  </si>
-  <si>
-    <t>AK</t>
-  </si>
-  <si>
-    <t>Arizona</t>
-  </si>
-  <si>
-    <t>AZ</t>
-  </si>
-  <si>
-    <t>Ariz.</t>
-  </si>
-  <si>
-    <t>Arkansas</t>
-  </si>
-  <si>
-    <t>AR</t>
-  </si>
-  <si>
-    <t>Ark.</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>Calif.</t>
-  </si>
-  <si>
-    <t>Colorado</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>Colo.</t>
-  </si>
-  <si>
-    <t>Connecticut</t>
-  </si>
-  <si>
-    <t>CT</t>
-  </si>
-  <si>
-    <t>Conn.</t>
-  </si>
-  <si>
-    <t>Delaware</t>
-  </si>
-  <si>
-    <t>DE</t>
-  </si>
-  <si>
-    <t>Del.</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>District of Columbia</t>
-  </si>
-  <si>
-    <t>DC</t>
-  </si>
-  <si>
-    <t>Matt Stiles/&lt;a href="http://www.thedailyviz.com"&gt;The Daily Viz&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>D.C.</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>FL</t>
-  </si>
-  <si>
-    <t>Fla.</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>GA</t>
-  </si>
-  <si>
-    <t>Ga.</t>
-  </si>
-  <si>
-    <t>Hawaii</t>
-  </si>
-  <si>
-    <t>HI</t>
-  </si>
-  <si>
-    <t>Idaho</t>
-  </si>
-  <si>
-    <t>ID</t>
+    <t>N.H.</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>N.J.</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>NM</t>
+  </si>
+  <si>
+    <t>N.M.</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>N.Y.</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>N.C.</t>
+  </si>
+  <si>
+    <t>North Dakota</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>N.D.</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Okla.</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>Ore.</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>Pa.</t>
+  </si>
+  <si>
+    <t>Rhode Island</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>R.I.</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>S.C.</t>
+  </si>
+  <si>
+    <t>South Dakota</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>S.D.</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>Tenn.</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>legend_head</t>
+  </si>
+  <si>
+    <t>Marriages per 1,000</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Optional text, appears as h3 above legend</t>
+  </si>
+  <si>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>Vermont</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>Vt.</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>VA</t>
   </si>
   <si>
     <t>5-6</t>
   </si>
   <si>
-    <t>Illinois</t>
-  </si>
-  <si>
-    <t>IL</t>
-  </si>
-  <si>
-    <t>legend_head</t>
-  </si>
-  <si>
-    <t>Ill.</t>
-  </si>
-  <si>
-    <t>Marriages per 1,000</t>
-  </si>
-  <si>
-    <t>Indiana</t>
-  </si>
-  <si>
-    <t>Optional text, appears as h3 above legend</t>
-  </si>
-  <si>
-    <t>IN</t>
-  </si>
-  <si>
-    <t>Ind.</t>
-  </si>
-  <si>
-    <t>Iowa</t>
-  </si>
-  <si>
-    <t>IA</t>
-  </si>
-  <si>
-    <t>Kansas</t>
-  </si>
-  <si>
-    <t>KS</t>
-  </si>
-  <si>
-    <t>Kan.</t>
-  </si>
-  <si>
-    <t>Kentucky</t>
-  </si>
-  <si>
-    <t>KY</t>
-  </si>
-  <si>
-    <t>Ky.</t>
-  </si>
-  <si>
-    <t>Louisiana</t>
-  </si>
-  <si>
-    <t>LA</t>
-  </si>
-  <si>
-    <t>La.</t>
-  </si>
-  <si>
-    <t>Maine</t>
-  </si>
-  <si>
-    <t>ME</t>
-  </si>
-  <si>
-    <t>Maryland</t>
-  </si>
-  <si>
-    <t>MD</t>
-  </si>
-  <si>
-    <t>Md.</t>
-  </si>
-  <si>
-    <t>Massachusetts</t>
-  </si>
-  <si>
-    <t>MA</t>
-  </si>
-  <si>
-    <t>Mass.</t>
-  </si>
-  <si>
-    <t>Michigan</t>
-  </si>
-  <si>
-    <t>MI</t>
-  </si>
-  <si>
-    <t>Mich.</t>
-  </si>
-  <si>
-    <t>Minnesota</t>
-  </si>
-  <si>
-    <t>MN</t>
-  </si>
-  <si>
-    <t>Minn.</t>
-  </si>
-  <si>
-    <t>Mississippi</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>Miss.</t>
-  </si>
-  <si>
-    <t>Missouri</t>
-  </si>
-  <si>
-    <t>MO</t>
-  </si>
-  <si>
-    <t>Mo.</t>
-  </si>
-  <si>
-    <t>Montana</t>
-  </si>
-  <si>
-    <t>MT</t>
-  </si>
-  <si>
-    <t>Mont.</t>
+    <t>Va.</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>Wash.</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>WV</t>
+  </si>
+  <si>
+    <t>W.Va.</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>WI</t>
+  </si>
+  <si>
+    <t>Wis.</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>WY</t>
+  </si>
+  <si>
+    <t>Wyo.</t>
   </si>
   <si>
     <t>legend_labels</t>
@@ -312,238 +519,31 @@
     <t>4,6,7,8,9</t>
   </si>
   <si>
-    <t>Nebraska</t>
-  </si>
-  <si>
-    <t>NE</t>
-  </si>
-  <si>
-    <t>Neb.</t>
-  </si>
-  <si>
-    <t>Nevada</t>
-  </si>
-  <si>
-    <t>NV</t>
-  </si>
-  <si>
-    <t>Nev.</t>
-  </si>
-  <si>
-    <t>New Jersey</t>
-  </si>
-  <si>
-    <t>New Hampshire</t>
-  </si>
-  <si>
-    <t>Wisconsin</t>
-  </si>
-  <si>
-    <t>NH</t>
-  </si>
-  <si>
-    <t>N.H.</t>
-  </si>
-  <si>
-    <t>NJ</t>
-  </si>
-  <si>
-    <t>N.J.</t>
-  </si>
-  <si>
-    <t>New Mexico</t>
-  </si>
-  <si>
-    <t>Pennsylvania</t>
-  </si>
-  <si>
-    <t>NM</t>
-  </si>
-  <si>
     <t>Optional. Comma-separated list of category names or legend labels in the order you want them displayed.</t>
   </si>
   <si>
-    <t>N.M.</t>
-  </si>
-  <si>
-    <t>New York</t>
-  </si>
-  <si>
-    <t>NY</t>
-  </si>
-  <si>
-    <t>N.Y.</t>
-  </si>
-  <si>
-    <t>North Carolina</t>
-  </si>
-  <si>
-    <t>NC</t>
-  </si>
-  <si>
-    <t>N.C.</t>
-  </si>
-  <si>
-    <t>North Dakota</t>
-  </si>
-  <si>
-    <t>ND</t>
-  </si>
-  <si>
-    <t>N.D.</t>
-  </si>
-  <si>
-    <t>Ohio</t>
-  </si>
-  <si>
-    <t>OH</t>
-  </si>
-  <si>
-    <t>Oklahoma</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>Okla.</t>
-  </si>
-  <si>
-    <t>Oregon</t>
+    <t>is_numeric</t>
+  </si>
+  <si>
+    <t>Options: True, False. Determines whether a legend displays as ordinal categories or sequential numeric values.</t>
+  </si>
+  <si>
+    <t>max_label</t>
+  </si>
+  <si>
+    <t>90%</t>
   </si>
   <si>
     <t>6-7</t>
   </si>
   <si>
-    <t>OR</t>
-  </si>
-  <si>
-    <t>Ore.</t>
-  </si>
-  <si>
-    <t>PA</t>
-  </si>
-  <si>
-    <t>Pa.</t>
-  </si>
-  <si>
-    <t>Rhode Island</t>
-  </si>
-  <si>
-    <t>RI</t>
-  </si>
-  <si>
-    <t>R.I.</t>
-  </si>
-  <si>
-    <t>South Carolina</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
-    <t>S.C.</t>
-  </si>
-  <si>
-    <t>is_numeric</t>
-  </si>
-  <si>
-    <t>South Dakota</t>
-  </si>
-  <si>
-    <t>SD</t>
-  </si>
-  <si>
-    <t>S.D.</t>
-  </si>
-  <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
-    <t>TN</t>
-  </si>
-  <si>
-    <t>Tenn.</t>
-  </si>
-  <si>
-    <t>Texas</t>
-  </si>
-  <si>
-    <t>TX</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>Utah</t>
-  </si>
-  <si>
-    <t>UT</t>
-  </si>
-  <si>
-    <t>Options: True, False. Determines whether a legend displays as ordinal categories or sequential numeric values.</t>
-  </si>
-  <si>
-    <t>Vermont</t>
-  </si>
-  <si>
-    <t>VT</t>
-  </si>
-  <si>
-    <t>Vt.</t>
-  </si>
-  <si>
-    <t>Virginia</t>
-  </si>
-  <si>
-    <t>VA</t>
-  </si>
-  <si>
-    <t>Va.</t>
-  </si>
-  <si>
-    <t>West Virginia</t>
-  </si>
-  <si>
-    <t>WA</t>
-  </si>
-  <si>
-    <t>Wash.</t>
-  </si>
-  <si>
-    <t>max_label</t>
-  </si>
-  <si>
-    <t>90%</t>
-  </si>
-  <si>
-    <t>WV</t>
-  </si>
-  <si>
-    <t>W.Va.</t>
-  </si>
-  <si>
-    <t>WI</t>
-  </si>
-  <si>
-    <t>Wis.</t>
-  </si>
-  <si>
-    <t>Wyoming</t>
-  </si>
-  <si>
-    <t>WY</t>
-  </si>
-  <si>
-    <t>Wyo.</t>
-  </si>
-  <si>
     <t>Optional text. Adds an extra value to the numeric legend so the scale includes upper and lower bounds.</t>
   </si>
   <si>
+    <t>keychatter</t>
+  </si>
+  <si>
     <t>7-8</t>
-  </si>
-  <si>
-    <t>keychatter</t>
   </si>
   <si>
     <t>8-9</t>
@@ -567,9 +567,6 @@
       <sz val="14.0"/>
     </font>
     <font>
-      <b/>
-    </font>
-    <font>
       <sz val="14.0"/>
     </font>
     <font>
@@ -577,14 +574,17 @@
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
+    </font>
+    <font>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <i/>
       <sz val="12.0"/>
       <color rgb="FF999999"/>
     </font>
+    <font/>
   </fonts>
   <fills count="5">
     <fill>
@@ -613,16 +613,8 @@
     </fill>
   </fills>
   <borders count="2">
+    <border/>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -633,63 +625,63 @@
   </cellStyleXfs>
   <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -699,19 +691,22 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -755,610 +750,610 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" ht="33.0" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
     </row>
     <row r="3" ht="33.0" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
     </row>
     <row r="4" ht="33.0" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
     </row>
     <row r="5" ht="33.0" customHeight="1">
-      <c r="A5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
+      <c r="A5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
     </row>
     <row r="6" ht="33.0" customHeight="1">
-      <c r="A6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
+      <c r="A6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
     </row>
     <row r="7" ht="33.0" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
     </row>
     <row r="8" ht="33.0" customHeight="1">
-      <c r="A8" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
+      <c r="A8" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
     </row>
     <row r="9" ht="33.0" customHeight="1">
-      <c r="A9" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
+      <c r="A9" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
     </row>
     <row r="10" ht="33.0" customHeight="1">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+    </row>
+    <row r="11" ht="33.0" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+    </row>
+    <row r="12" ht="33.0" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B10" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-    </row>
-    <row r="11" ht="33.0" customHeight="1">
-      <c r="A11" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
-    </row>
-    <row r="12" ht="33.0" customHeight="1">
-      <c r="A12" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="6"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
     </row>
     <row r="13" ht="33.0" customHeight="1">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
     </row>
     <row r="14" ht="33.0" customHeight="1">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
     </row>
     <row r="15" ht="33.0" customHeight="1">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
     </row>
     <row r="16" ht="33.0" customHeight="1">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
     </row>
     <row r="17" ht="33.0" customHeight="1">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="6"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
     </row>
     <row r="18" ht="33.0" customHeight="1">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="6"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
     </row>
     <row r="19" ht="33.0" customHeight="1">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="6"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
     </row>
     <row r="20" ht="33.0" customHeight="1">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="6"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
     </row>
     <row r="21" ht="33.0" customHeight="1">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="6"/>
-      <c r="W21" s="6"/>
-      <c r="X21" s="6"/>
-      <c r="Y21" s="6"/>
-      <c r="Z21" s="6"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1367,6 +1362,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1379,644 +1377,644 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="s">
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="8"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="4" t="s">
+      <c r="C10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="C13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="4" t="s">
+      <c r="C14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="4" t="s">
+      <c r="B16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="B17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="6" t="s">
+      <c r="B18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C19" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="4" t="s">
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B21" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C21" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="8"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="B25" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="6" t="s">
+      <c r="C26" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="B27" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="4" t="s">
+      <c r="C29" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="B30" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="4" t="s">
+      <c r="C30" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C29" s="4" t="s">
+      <c r="C31" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="4" t="s">
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B32" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C32" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D30" s="8"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="4" t="s">
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="C33" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="B34" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B32" s="4" t="s">
+      <c r="C34" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="C35" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="B36" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="6" t="s">
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B37" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C37" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D34" s="6"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="C38" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="4" t="s">
+      <c r="B39" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="C39" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="D39" s="5"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="C40" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="4" t="s">
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B41" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C41" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="4" t="s">
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B42" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D39" s="8"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B40" s="4" t="s">
+      <c r="B43" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C43" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D40" s="4"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="4" t="s">
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B44" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C44" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="4" t="s">
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B45" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="6" t="s">
+      <c r="C45" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C43" s="6" t="s">
+      <c r="B46" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D43" s="6"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="4" t="s">
+      <c r="C46" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B47" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C47" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D44" s="4"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="4" t="s">
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B48" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D45" s="4"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="4" t="s">
+      <c r="C48" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="D48" s="5"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D46" s="4"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="4" t="s">
+      <c r="B49" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="B50" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D47" s="4"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="4" t="s">
+      <c r="C50" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="B51" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D48" s="8"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B49" s="4" t="s">
+      <c r="C51" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="B52" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="D49" s="4"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D50" s="4"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D51" s="4"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D52" s="6"/>
+      <c r="C52" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D52" s="4"/>
     </row>
     <row r="53">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
     </row>
     <row r="54">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
     </row>
     <row r="55">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -2025,6 +2023,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2035,426 +2036,426 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
+      <c r="A1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
     </row>
     <row r="2">
       <c r="A2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="15">
+        <v>28</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="16">
         <v>5.3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="15">
+        <v>73</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" s="16">
         <v>5.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="15">
+        <v>80</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" s="16">
         <v>5.6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="15">
+        <v>102</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="16">
         <v>5.6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="15">
+        <v>160</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="16">
         <v>5.6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="15">
+        <v>33</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" s="16">
         <v>5.7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="15">
+        <v>125</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" s="16">
         <v>5.7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="15">
+        <v>15</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="16">
         <v>5.9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="15">
+        <v>49</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" s="16">
         <v>5.9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="15">
+        <v>57</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11" s="16">
         <v>5.9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="15">
+        <v>117</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D12" s="16">
         <v>5.9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D13" s="15">
+        <v>77</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D13" s="16">
         <v>6.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D14" s="15">
+        <v>22</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D14" s="16">
         <v>6.2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D15" s="15">
+        <v>42</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D15" s="16">
         <v>6.2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D16" s="15">
+        <v>70</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D16" s="16">
         <v>6.2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D17" s="15">
+        <v>86</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D17" s="16">
         <v>6.2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D18" s="15">
+        <v>105</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D18" s="16">
         <v>6.2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D19" s="15">
+        <v>114</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D19" s="16">
         <v>6.2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D20" s="15">
+        <v>154</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D20" s="16">
         <v>6.2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D21" s="15">
+        <v>55</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D21" s="16">
         <v>6.3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D22" s="15">
+        <v>92</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D22" s="16">
         <v>6.4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D23" s="15">
+        <v>128</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D23" s="16">
         <v>6.4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D24" s="15">
+        <v>157</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D24" s="16">
         <v>6.6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D25" s="15">
+        <v>25</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D25" s="16">
         <v>6.8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D26" s="15">
+        <v>64</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D26" s="16">
         <v>6.8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D27" s="15">
+        <v>52</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D27" s="16">
         <v>6.9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D28" s="15">
+        <v>98</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D28" s="16">
         <v>6.9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D29" s="15">
+        <v>122</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D29" s="16">
         <v>6.9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="D30" s="15">
+        <v>83</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D30" s="16">
         <v>7.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="D31" s="15">
+        <v>111</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D31" s="16">
         <v>7.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="D32" s="15">
+        <v>150</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D32" s="16">
         <v>7.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="D33" s="15">
+        <v>108</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D33" s="16">
         <v>7.1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="D34" s="15">
+        <v>60</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D34" s="16">
         <v>7.2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="D35" s="15">
+        <v>134</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D35" s="16">
         <v>7.2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="D36" s="15">
+        <v>140</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D36" s="16">
         <v>7.2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>175</v>
+        <v>163</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>176</v>
       </c>
       <c r="D37" s="12">
         <v>7.3</v>
@@ -2462,163 +2463,163 @@
     </row>
     <row r="38">
       <c r="A38" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="D38" s="15">
+        <v>7</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D38" s="16">
         <v>7.4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="D39" s="15">
+        <v>11</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D39" s="16">
         <v>7.4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="D40" s="15">
+        <v>119</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D40" s="16">
         <v>7.4</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="D41" s="15">
+        <v>131</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D41" s="16">
         <v>7.5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="D42" s="15">
+        <v>68</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D42" s="16">
         <v>7.6</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B43" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D43" s="15">
+      <c r="D43" s="16">
         <v>8.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="B44" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B44" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D44" s="15">
+      <c r="D44" s="16">
         <v>8.1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="B45" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B45" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D45" s="15">
+      <c r="D45" s="16">
         <v>8.1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B46" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D46" s="15">
+      <c r="D46" s="16">
         <v>8.2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B47" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D47" s="15">
+      <c r="D47" s="16">
         <v>8.2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B48" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D48" s="15">
+      <c r="D48" s="16">
         <v>8.2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="B49" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B49" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D49" s="15">
+      <c r="D49" s="16">
         <v>8.5</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B50" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="D50" s="15">
+      <c r="D50" s="16">
         <v>10.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B51" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="D51" s="15">
+      <c r="D51" s="16">
         <v>15.9</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="B52" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B52" s="14" t="s">
         <v>178</v>
       </c>
       <c r="D52" s="19">
